--- a/src/testdata/LoginRegister.xlsx
+++ b/src/testdata/LoginRegister.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\e-commerceTesting\src\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\eCommerceTEsting_automationexercise.com\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A6F4A-5EB0-45A2-8A1F-0A99E8DF4522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A3B2A-013C-4D39-8133-656E78B0DDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{35546CC2-1C8B-462C-ABCA-2121C1C6DB80}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>userName</t>
   </si>
@@ -61,10 +61,7 @@
     <t>kpradipto</t>
   </si>
   <si>
-    <t>Kukuh4</t>
-  </si>
-  <si>
-    <t>kukuhpradipto4@gmail.com</t>
+    <t>kukuhpradipto1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -109,14 +106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B0D76-44A3-409F-9A79-B6947F5C2BB6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,9 +452,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5CCFAA7A-CAD5-458E-9A0E-B80C1507D62E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{8171F983-6FA3-4940-8590-1B6D4248A7A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E8349-F941-470C-B707-4F43F7E1D582}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,21 +540,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{38383D8A-3CE0-462F-9CFB-620D46C1C1CB}"/>
     <hyperlink ref="B2" r:id="rId2" display="kpradipto@gmail" xr:uid="{A5BF94C8-EA7B-4D94-A9BB-B08190D07031}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{1E32B85D-CE7C-43D5-8E72-41817C143B12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>